--- a/biology/Médecine/Jean_Bouillet/Jean_Bouillet.xlsx
+++ b/biology/Médecine/Jean_Bouillet/Jean_Bouillet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Bouillet, né le 14 mai 1690 à Servian[1] près de Béziers et mort à Béziers le 13 août 1777, est un médecin français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Bouillet, né le 14 mai 1690 à Servian près de Béziers et mort à Béziers le 13 août 1777, est un médecin français.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À l’étude des lois, à laquelle le destinent ses parents, il préfère celle de la médecine, qu’il commence à Montpellier en 1707. 
 Il est reçu docteur en 1711. Peu de médecins ont joui d’une carrière aussi longue. Il se livre à l’étude de son art, à Servian, sans se permettre de voir des malades ; puis, en 1715, vient s’établir à Béziers, où il se distingue, pendant plus de soixante ans, par d’éminents services. 
@@ -547,7 +561,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On a de lui : 
 une Lettre à Penna, médecin du prince de [Monaco], au sujet de la rhubarbe, Béziers, pour lui indiquer des analogues de cette substance purgative qui était chère alors ;
@@ -589,7 +605,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il meurt à Béziers, à l’âge de 88 ans, le 13 août 1777, à la suite d’un froid dont il est surpris un matin, en faisant une observation astronomique dont il ordonne encore au lit de mort la continuation à ses enfants.
 </t>
@@ -620,7 +638,9 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il épouse Catherine de Margals.
 Son fils Jean-Henri-Nicolas (1729–1790), avec qui il collabore, est médecin et auteur lui-même de plusieurs ouvrages.
